--- a/pred_ohlcv/54_21/2020-01-12 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 ETC ohlcv.xlsx
@@ -1718,7 +1718,7 @@
         <v>-1266.150598682758</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-1426.150598682758</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-1426.150598682758</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-1714.255798682758</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-1515.897598682758</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-1515.897598682758</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-1992.004798682759</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1711.628698682759</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1506.986198682759</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-434.7588679200467</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-496.4326679200467</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-287.3326679200467</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-542.4043679200466</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-515.1232679200466</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-243.3411679200468</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-251.6247679200468</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-322.7821607528115</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>12026.57103924719</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>12943.89643924719</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>13654.63673924719</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>12990.14983924719</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>12588.70983924719</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>12151.70983924719</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>13219.96233924719</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>12231.45043924719</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>12129.05043924719</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>12106.62913924719</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>13468.90915395542</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>13468.90915395542</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>13743.12915395542</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>14069.01265395542</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>15420.31405395542</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>14381.94915395542</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>14505.84915395542</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>13851.67845395542</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>13980.87845395542</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>18414.47227129689</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>18414.47227129689</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>18400.37837129689</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>18855.33737129689</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>19086.75437129689</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>19086.14507129689</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>19175.41917129689</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>19175.41917129689</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>19214.13479004689</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>18713.68479004689</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>18717.46359004689</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>18717.46359004689</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>18717.36359004689</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>19601.0383900469</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>19065.97679004689</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>19066.1267900469</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>18942.78533871669</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>18943.4824367559</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>18943.4824367559</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>18943.4824367559</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>18912.9107367559</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>19143.6828367559</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>19143.6828367559</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>18832.6546367559</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>18832.6546367559</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>18832.6546367559</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>18838.3546367559</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>18838.3546367559</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>18803.0396367559</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>18803.0396367559</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>18156.4318367559</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>18579.1544367559</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>18524.8004367559</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>18038.11073675591</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>18407.36313675591</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>19104.71283675591</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>19158.1070367559</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>18983.31233675591</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>18983.31233675591</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>18993.31233675591</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>18993.31233675591</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>18993.1545367559</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>18856.0534367559</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>19898.51743881876</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>22378.15043881875</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>22276.10093881875</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>22644.60093881875</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>24330.37603881875</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>24330.37603881875</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>24330.37603881875</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>24252.37603881875</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>23746.77123881875</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>23746.77123881875</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>23252.83833881875</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>23202.47463881875</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>23212.90543881875</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>23212.90543881875</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>23212.90543881875</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>23361.90543881875</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>23654.06273881875</v>
       </c>
       <c r="H686">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>23700.62773881874</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-12 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 ETC ohlcv.xlsx
@@ -1744,7 +1744,7 @@
         <v>-1426.150598682758</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-2000.747598682759</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-1992.004798682759</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1711.628698682759</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1506.986198682759</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-434.7588679200467</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-496.4326679200467</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-287.3326679200467</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-542.4043679200466</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-515.1232679200466</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-243.3411679200468</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-251.6247679200468</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-936.8246679200469</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-322.7821607528115</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>12026.57103924719</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>12943.89643924719</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>13654.63673924719</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>12990.14983924719</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>12588.70983924719</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>12151.70983924719</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>13219.96233924719</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>12231.45043924719</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>12129.05043924719</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>12106.62913924719</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>13468.90915395542</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>13468.90915395542</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>13743.12915395542</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>14069.01265395542</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>15420.31405395542</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>14505.84915395542</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>14096.85855395542</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>13851.67845395542</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>13980.87845395542</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>13135.79752278968</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>13135.79752278968</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>13389.12108984208</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>17995.36153743861</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>17023.10733743861</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>18323.21913743861</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>19065.33203743861</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>19042.74743743861</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>19042.74743743861</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>19037.46413743861</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>18867.23737129688</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>18929.66637129688</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>18807.44547129688</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>19114.15667129688</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>19073.57267129688</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>18863.07387129688</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>19094.28897129688</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>18872.65217129689</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>19225.23257129689</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>19351.78467129689</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>18747.14077129689</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>18855.14987129689</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>18826.94347129689</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>18707.03377129689</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>18603.73377129689</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>18603.73377129689</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>18707.13377129689</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>18558.40457129689</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>18398.27037129689</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>18453.86697129689</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>18466.19157129689</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>18420.60757129689</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>18534.93587129689</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>18414.47227129689</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>18414.47227129689</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>18304.47227129689</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>18749.75257129689</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>18400.37837129689</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>18855.33737129689</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>19086.75437129689</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>19086.14507129689</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>19175.41917129689</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>19175.41917129689</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>19214.13479004689</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>18713.68479004689</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>18717.46359004689</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>18717.46359004689</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>18717.36359004689</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>19601.0383900469</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>19065.97679004689</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>19066.1267900469</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>18942.78533871669</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>18943.4824367559</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>18943.4824367559</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>18943.4824367559</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>18912.9107367559</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>19143.6828367559</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>19143.6828367559</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>18832.6546367559</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>18832.6546367559</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>18832.6546367559</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>18838.3546367559</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>18838.3546367559</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>18803.0396367559</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>18803.0396367559</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>18156.4318367559</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>18347.1700367559</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>18347.1700367559</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>18330.3693367559</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>18498.0086367559</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>19395.4598367559</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>19222.2554367559</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>19002.3909367559</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>19104.2768367559</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>19104.2768367559</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>19104.2768367559</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>19104.71283675591</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>19104.71283675591</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>19158.1070367559</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>18983.31233675591</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>18983.31233675591</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>18993.31233675591</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>18993.1545367559</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>18856.0534367559</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>20553.70823881875</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>20762.37493881875</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>19935.75173881876</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>19935.75173881876</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>19898.51743881876</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>19898.51743881876</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>22660.33043881875</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>22378.15043881875</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>22276.10093881875</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>22644.60093881875</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>24330.37603881875</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>24330.37603881875</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>24330.37603881875</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>24252.37603881875</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>23746.77123881875</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>23746.77123881875</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>23252.83833881875</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>23202.47463881875</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>23212.90543881875</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>23212.90543881875</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>23212.90543881875</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>23361.90543881875</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>23654.06273881875</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>23700.62773881874</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
